--- a/biology/Médecine/Ételcalcétide/Ételcalcétide.xlsx
+++ b/biology/Médecine/Ételcalcétide/Ételcalcétide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89telcalc%C3%A9tide</t>
+          <t>Ételcalcétide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ételcalcétide (ou velcacétide) est une molécule en cours de test comme médicament dans le traitement des hyperparathyroïdies secondaires.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89telcalc%C3%A9tide</t>
+          <t>Ételcalcétide</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un petide de synthèse. Il se fixe sur les récepteurs sensibles au calcium situés sur les parathyroïdes, inhibant ainsi la sécrétion de parathormone[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un petide de synthèse. Il se fixe sur les récepteurs sensibles au calcium situés sur les parathyroïdes, inhibant ainsi la sécrétion de parathormone.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89telcalc%C3%A9tide</t>
+          <t>Ételcalcétide</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez les insuffisants rénaux dialysés, et donné par voie intraveineuse à la fin d'une dialyse, avec hyperparathyroïdie, il permet une diminution significative du taux de la parathormone et de la calcémie[2]. Son efficacité est comparable à celle du cinacalcet[3] dont le mécanisme d'action est identique.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les insuffisants rénaux dialysés, et donné par voie intraveineuse à la fin d'une dialyse, avec hyperparathyroïdie, il permet une diminution significative du taux de la parathormone et de la calcémie. Son efficacité est comparable à celle du cinacalcet dont le mécanisme d'action est identique.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89telcalc%C3%A9tide</t>
+          <t>Ételcalcétide</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires les plus courants sont les nausées et la diarrhée[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires les plus courants sont les nausées et la diarrhée.
 </t>
         </is>
       </c>
